--- a/output/Resultados/3.AsignacionTamMuestraUPMsEnCadaPanel/df_asignaNumUPMPanelNoRefrescoXEstrato.xlsx
+++ b/output/Resultados/3.AsignacionTamMuestraUPMsEnCadaPanel/df_asignaNumUPMPanelNoRefrescoXEstrato.xlsx
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="C48">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="C49">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="C50">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="C51">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="C55">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="C116">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117">
@@ -2111,7 +2111,7 @@
         </is>
       </c>
       <c r="C117">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="C118">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119">
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="C119">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120">
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="C120">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="C121">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122">
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="C122">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123">
@@ -2201,7 +2201,7 @@
         </is>
       </c>
       <c r="C123">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124">
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="C124">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125">
@@ -2231,7 +2231,7 @@
         </is>
       </c>
       <c r="C125">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126">
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="C152">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="153">
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="C153">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154">
@@ -2666,7 +2666,7 @@
         </is>
       </c>
       <c r="C154">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155">
@@ -2681,7 +2681,7 @@
         </is>
       </c>
       <c r="C155">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="C156">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157">
@@ -2711,7 +2711,7 @@
         </is>
       </c>
       <c r="C157">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158">
@@ -2726,7 +2726,7 @@
         </is>
       </c>
       <c r="C158">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="159">
@@ -2741,7 +2741,7 @@
         </is>
       </c>
       <c r="C159">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160">
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="C160">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="161">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="C161">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="162">
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="C162">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163">
@@ -2801,7 +2801,7 @@
         </is>
       </c>
       <c r="C163">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="164">
@@ -3011,7 +3011,7 @@
         </is>
       </c>
       <c r="C177">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="178">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="C178">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179">
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="C179">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="180">
@@ -3056,7 +3056,7 @@
         </is>
       </c>
       <c r="C180">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="C181">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182">
@@ -3086,7 +3086,7 @@
         </is>
       </c>
       <c r="C182">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="183">
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="C183">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="184">
@@ -3116,7 +3116,7 @@
         </is>
       </c>
       <c r="C184">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="185">
@@ -3131,7 +3131,7 @@
         </is>
       </c>
       <c r="C185">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="186">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="C206">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="207">
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="C207">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="208">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="C208">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="209">
@@ -3491,7 +3491,7 @@
         </is>
       </c>
       <c r="C209">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="210">
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="C210">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="211">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="C211">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="212">
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="C212">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="213">
@@ -3551,7 +3551,7 @@
         </is>
       </c>
       <c r="C213">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="214">
@@ -3566,7 +3566,7 @@
         </is>
       </c>
       <c r="C214">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="215">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="C215">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="216">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="C216">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="217">
@@ -3611,7 +3611,7 @@
         </is>
       </c>
       <c r="C217">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="218">
@@ -3626,7 +3626,7 @@
         </is>
       </c>
       <c r="C218">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="219">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="C261">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="262">
@@ -4286,7 +4286,7 @@
         </is>
       </c>
       <c r="C262">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="263">
@@ -4301,7 +4301,7 @@
         </is>
       </c>
       <c r="C263">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="264">
@@ -4316,7 +4316,7 @@
         </is>
       </c>
       <c r="C264">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="265">
@@ -4331,7 +4331,7 @@
         </is>
       </c>
       <c r="C265">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="266">
@@ -4691,7 +4691,7 @@
         </is>
       </c>
       <c r="C289">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="290">
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="C290">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="291">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="C291">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="292">
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="C292">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="293">
@@ -4751,7 +4751,7 @@
         </is>
       </c>
       <c r="C293">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="294">
@@ -4766,7 +4766,7 @@
         </is>
       </c>
       <c r="C294">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="295">
@@ -4781,7 +4781,7 @@
         </is>
       </c>
       <c r="C295">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="296">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="C296">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="297">
@@ -4811,7 +4811,7 @@
         </is>
       </c>
       <c r="C297">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="298">
@@ -4826,7 +4826,7 @@
         </is>
       </c>
       <c r="C298">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="299">
@@ -4841,7 +4841,7 @@
         </is>
       </c>
       <c r="C299">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="300">
@@ -4856,7 +4856,7 @@
         </is>
       </c>
       <c r="C300">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="301">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="C301">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="302">
@@ -6941,7 +6941,7 @@
         </is>
       </c>
       <c r="C439">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="440">
@@ -6956,7 +6956,7 @@
         </is>
       </c>
       <c r="C440">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="441">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="C441">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="442">
@@ -6986,7 +6986,7 @@
         </is>
       </c>
       <c r="C442">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="443">
@@ -7001,7 +7001,7 @@
         </is>
       </c>
       <c r="C443">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="444">
@@ -7016,7 +7016,7 @@
         </is>
       </c>
       <c r="C444">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="445">
@@ -7031,7 +7031,7 @@
         </is>
       </c>
       <c r="C445">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="446">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="C446">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="447">
@@ -7061,7 +7061,7 @@
         </is>
       </c>
       <c r="C447">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="448">
@@ -7076,7 +7076,7 @@
         </is>
       </c>
       <c r="C448">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="449">
@@ -7091,7 +7091,7 @@
         </is>
       </c>
       <c r="C449">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="450">
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="C450">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="451">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="C451">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="452">
@@ -7136,7 +7136,7 @@
         </is>
       </c>
       <c r="C452">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453">
@@ -7151,7 +7151,7 @@
         </is>
       </c>
       <c r="C453">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454">
@@ -7166,7 +7166,7 @@
         </is>
       </c>
       <c r="C454">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455">
@@ -7181,7 +7181,7 @@
         </is>
       </c>
       <c r="C455">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="C456">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457">
@@ -7211,7 +7211,7 @@
         </is>
       </c>
       <c r="C457">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458">
@@ -7226,7 +7226,7 @@
         </is>
       </c>
       <c r="C458">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459">
@@ -7241,7 +7241,7 @@
         </is>
       </c>
       <c r="C459">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460">
@@ -7256,7 +7256,7 @@
         </is>
       </c>
       <c r="C460">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="C461">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462">
@@ -7286,7 +7286,7 @@
         </is>
       </c>
       <c r="C462">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463">
@@ -7301,7 +7301,7 @@
         </is>
       </c>
       <c r="C463">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464">
@@ -7511,7 +7511,7 @@
         </is>
       </c>
       <c r="C477">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478">
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="C478">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479">
@@ -7541,7 +7541,7 @@
         </is>
       </c>
       <c r="C479">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480">
@@ -7556,7 +7556,7 @@
         </is>
       </c>
       <c r="C480">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="C481">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482">
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="C482">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483">
@@ -7601,7 +7601,7 @@
         </is>
       </c>
       <c r="C483">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484">
@@ -7616,7 +7616,7 @@
         </is>
       </c>
       <c r="C484">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485">
@@ -7631,7 +7631,7 @@
         </is>
       </c>
       <c r="C485">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486">
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="C498">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499">
@@ -7841,7 +7841,7 @@
         </is>
       </c>
       <c r="C499">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500">
@@ -7856,7 +7856,7 @@
         </is>
       </c>
       <c r="C500">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="C501">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502">
@@ -7886,7 +7886,7 @@
         </is>
       </c>
       <c r="C502">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503">
@@ -7901,7 +7901,7 @@
         </is>
       </c>
       <c r="C503">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504">
@@ -7916,7 +7916,7 @@
         </is>
       </c>
       <c r="C504">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505">
@@ -7931,7 +7931,7 @@
         </is>
       </c>
       <c r="C505">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="C506">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507">
@@ -7961,7 +7961,7 @@
         </is>
       </c>
       <c r="C507">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508">
@@ -7976,7 +7976,7 @@
         </is>
       </c>
       <c r="C508">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509">
@@ -7991,7 +7991,7 @@
         </is>
       </c>
       <c r="C509">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510">
@@ -8006,7 +8006,7 @@
         </is>
       </c>
       <c r="C510">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="C511">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512">
@@ -8036,7 +8036,7 @@
         </is>
       </c>
       <c r="C512">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513">
@@ -8051,7 +8051,7 @@
         </is>
       </c>
       <c r="C513">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514">
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="C514">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515">
@@ -8081,7 +8081,7 @@
         </is>
       </c>
       <c r="C515">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="C516">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517">
@@ -8111,7 +8111,7 @@
         </is>
       </c>
       <c r="C517">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518">
@@ -8126,7 +8126,7 @@
         </is>
       </c>
       <c r="C518">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="C561">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562">
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="C562">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563">
@@ -8801,7 +8801,7 @@
         </is>
       </c>
       <c r="C563">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564">
@@ -8816,7 +8816,7 @@
         </is>
       </c>
       <c r="C564">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565">
@@ -8831,7 +8831,7 @@
         </is>
       </c>
       <c r="C565">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566">
@@ -9386,7 +9386,7 @@
         </is>
       </c>
       <c r="C602">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603">
@@ -9401,7 +9401,7 @@
         </is>
       </c>
       <c r="C603">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604">
@@ -9416,7 +9416,7 @@
         </is>
       </c>
       <c r="C604">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605">
@@ -9431,7 +9431,7 @@
         </is>
       </c>
       <c r="C605">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="C606">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607">
@@ -9461,7 +9461,7 @@
         </is>
       </c>
       <c r="C607">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608">
@@ -9476,7 +9476,7 @@
         </is>
       </c>
       <c r="C608">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609">
@@ -9491,7 +9491,7 @@
         </is>
       </c>
       <c r="C609">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610">
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="C610">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="C611">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612">
@@ -9536,7 +9536,7 @@
         </is>
       </c>
       <c r="C612">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613">
@@ -9551,7 +9551,7 @@
         </is>
       </c>
       <c r="C613">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614">
@@ -9566,7 +9566,7 @@
         </is>
       </c>
       <c r="C614">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615">
@@ -9581,7 +9581,7 @@
         </is>
       </c>
       <c r="C615">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="C616">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617">
@@ -9611,7 +9611,7 @@
         </is>
       </c>
       <c r="C617">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618">
@@ -9626,7 +9626,7 @@
         </is>
       </c>
       <c r="C618">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619">
@@ -9641,7 +9641,7 @@
         </is>
       </c>
       <c r="C619">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620">
@@ -9656,7 +9656,7 @@
         </is>
       </c>
       <c r="C620">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="C621">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622">
@@ -9686,7 +9686,7 @@
         </is>
       </c>
       <c r="C622">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623">
@@ -9701,7 +9701,7 @@
         </is>
       </c>
       <c r="C623">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624">
@@ -9716,7 +9716,7 @@
         </is>
       </c>
       <c r="C624">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625">
@@ -9731,7 +9731,7 @@
         </is>
       </c>
       <c r="C625">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="C626">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627">
@@ -9761,7 +9761,7 @@
         </is>
       </c>
       <c r="C627">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628">
@@ -9776,7 +9776,7 @@
         </is>
       </c>
       <c r="C628">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629">
@@ -9791,7 +9791,7 @@
         </is>
       </c>
       <c r="C629">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630">
@@ -9806,7 +9806,7 @@
         </is>
       </c>
       <c r="C630">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="C631">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632">
@@ -9836,7 +9836,7 @@
         </is>
       </c>
       <c r="C632">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633">
@@ -9851,7 +9851,7 @@
         </is>
       </c>
       <c r="C633">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634">
@@ -9866,7 +9866,7 @@
         </is>
       </c>
       <c r="C634">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635">
@@ -9881,7 +9881,7 @@
         </is>
       </c>
       <c r="C635">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="C636">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637">
@@ -9911,7 +9911,7 @@
         </is>
       </c>
       <c r="C637">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638">
@@ -9926,7 +9926,7 @@
         </is>
       </c>
       <c r="C638">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639">
@@ -9941,7 +9941,7 @@
         </is>
       </c>
       <c r="C639">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640">
@@ -9956,7 +9956,7 @@
         </is>
       </c>
       <c r="C640">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="C641">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642">
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="C642">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643">
@@ -10001,7 +10001,7 @@
         </is>
       </c>
       <c r="C643">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644">
@@ -10016,7 +10016,7 @@
         </is>
       </c>
       <c r="C644">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645">
@@ -10031,7 +10031,7 @@
         </is>
       </c>
       <c r="C645">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="C646">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647">
@@ -10061,7 +10061,7 @@
         </is>
       </c>
       <c r="C647">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="C656">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657">
@@ -10211,7 +10211,7 @@
         </is>
       </c>
       <c r="C657">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658">
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="C658">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659">
@@ -10241,7 +10241,7 @@
         </is>
       </c>
       <c r="C659">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660">
@@ -10256,7 +10256,7 @@
         </is>
       </c>
       <c r="C660">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="C661">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662">
@@ -10286,7 +10286,7 @@
         </is>
       </c>
       <c r="C662">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663">
@@ -10301,7 +10301,7 @@
         </is>
       </c>
       <c r="C663">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664">
@@ -10316,7 +10316,7 @@
         </is>
       </c>
       <c r="C664">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665">
@@ -10331,7 +10331,7 @@
         </is>
       </c>
       <c r="C665">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="C666">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667">
@@ -10361,7 +10361,7 @@
         </is>
       </c>
       <c r="C667">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668">
@@ -10376,7 +10376,7 @@
         </is>
       </c>
       <c r="C668">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669">
@@ -10391,7 +10391,7 @@
         </is>
       </c>
       <c r="C669">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670">
@@ -10406,7 +10406,7 @@
         </is>
       </c>
       <c r="C670">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="C671">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672">
@@ -10436,7 +10436,7 @@
         </is>
       </c>
       <c r="C672">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673">
@@ -10451,7 +10451,7 @@
         </is>
       </c>
       <c r="C673">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674">
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="C674">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675">
@@ -10481,7 +10481,7 @@
         </is>
       </c>
       <c r="C675">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="C676">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677">
@@ -10511,7 +10511,7 @@
         </is>
       </c>
       <c r="C677">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678">
@@ -10526,7 +10526,7 @@
         </is>
       </c>
       <c r="C678">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679">
@@ -10541,7 +10541,7 @@
         </is>
       </c>
       <c r="C679">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680">
@@ -10556,7 +10556,7 @@
         </is>
       </c>
       <c r="C680">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="C681">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682">
@@ -10586,7 +10586,7 @@
         </is>
       </c>
       <c r="C682">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683">
@@ -10601,7 +10601,7 @@
         </is>
       </c>
       <c r="C683">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684">
@@ -10616,7 +10616,7 @@
         </is>
       </c>
       <c r="C684">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685">
@@ -10631,7 +10631,7 @@
         </is>
       </c>
       <c r="C685">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="C686">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687">
@@ -10661,7 +10661,7 @@
         </is>
       </c>
       <c r="C687">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688">
@@ -10676,7 +10676,7 @@
         </is>
       </c>
       <c r="C688">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689">
@@ -10691,7 +10691,7 @@
         </is>
       </c>
       <c r="C689">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690">
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="C690">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="C691">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692">
@@ -10736,7 +10736,7 @@
         </is>
       </c>
       <c r="C692">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693">
@@ -10751,7 +10751,7 @@
         </is>
       </c>
       <c r="C693">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694">
@@ -10766,7 +10766,7 @@
         </is>
       </c>
       <c r="C694">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695">
@@ -10781,7 +10781,7 @@
         </is>
       </c>
       <c r="C695">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="C696">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697">
@@ -10811,7 +10811,7 @@
         </is>
       </c>
       <c r="C697">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698">
@@ -10826,7 +10826,7 @@
         </is>
       </c>
       <c r="C698">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="C716">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717">
@@ -11111,7 +11111,7 @@
         </is>
       </c>
       <c r="C717">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718">
@@ -11126,7 +11126,7 @@
         </is>
       </c>
       <c r="C718">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719">
@@ -11141,7 +11141,7 @@
         </is>
       </c>
       <c r="C719">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720">
@@ -11156,7 +11156,7 @@
         </is>
       </c>
       <c r="C720">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="C721">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722">
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="C722">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723">
@@ -11201,7 +11201,7 @@
         </is>
       </c>
       <c r="C723">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724">
@@ -11216,7 +11216,7 @@
         </is>
       </c>
       <c r="C724">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725">
@@ -11231,7 +11231,7 @@
         </is>
       </c>
       <c r="C725">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="C726">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727">
@@ -11261,7 +11261,7 @@
         </is>
       </c>
       <c r="C727">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728">
@@ -11276,7 +11276,7 @@
         </is>
       </c>
       <c r="C728">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729">
@@ -11291,7 +11291,7 @@
         </is>
       </c>
       <c r="C729">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730">
@@ -11306,7 +11306,7 @@
         </is>
       </c>
       <c r="C730">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="C731">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732">
@@ -11336,7 +11336,7 @@
         </is>
       </c>
       <c r="C732">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733">
@@ -11351,7 +11351,7 @@
         </is>
       </c>
       <c r="C733">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734">
@@ -11366,7 +11366,7 @@
         </is>
       </c>
       <c r="C734">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735">
@@ -11381,7 +11381,7 @@
         </is>
       </c>
       <c r="C735">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="C736">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737">
@@ -11411,7 +11411,7 @@
         </is>
       </c>
       <c r="C737">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738">
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="C738">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739">
@@ -11636,7 +11636,7 @@
         </is>
       </c>
       <c r="C752">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="753">
@@ -11651,7 +11651,7 @@
         </is>
       </c>
       <c r="C753">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="754">
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="C754">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="755">
@@ -11681,7 +11681,7 @@
         </is>
       </c>
       <c r="C755">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="756">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="C756">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="757">
@@ -11711,7 +11711,7 @@
         </is>
       </c>
       <c r="C757">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="758">
@@ -11726,7 +11726,7 @@
         </is>
       </c>
       <c r="C758">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="759">
@@ -11741,7 +11741,7 @@
         </is>
       </c>
       <c r="C759">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="760">
@@ -11756,7 +11756,7 @@
         </is>
       </c>
       <c r="C760">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="761">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="C761">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="762">
@@ -11786,7 +11786,7 @@
         </is>
       </c>
       <c r="C762">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="763">
@@ -11801,7 +11801,7 @@
         </is>
       </c>
       <c r="C763">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="764">
@@ -12011,7 +12011,7 @@
         </is>
       </c>
       <c r="C777">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="778">
@@ -12026,7 +12026,7 @@
         </is>
       </c>
       <c r="C778">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="779">
@@ -12326,7 +12326,7 @@
         </is>
       </c>
       <c r="C798">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="799">
@@ -12341,7 +12341,7 @@
         </is>
       </c>
       <c r="C799">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="800">
@@ -12356,7 +12356,7 @@
         </is>
       </c>
       <c r="C800">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="801">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="C801">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="802">
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="C802">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="803">
@@ -12401,7 +12401,7 @@
         </is>
       </c>
       <c r="C803">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="804">
@@ -12416,7 +12416,7 @@
         </is>
       </c>
       <c r="C804">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="805">
@@ -12431,7 +12431,7 @@
         </is>
       </c>
       <c r="C805">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="806">
@@ -12641,7 +12641,7 @@
         </is>
       </c>
       <c r="C819">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="820">
@@ -12656,7 +12656,7 @@
         </is>
       </c>
       <c r="C820">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="821">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="C821">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="822">
@@ -12686,7 +12686,7 @@
         </is>
       </c>
       <c r="C822">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="823">
@@ -12701,7 +12701,7 @@
         </is>
       </c>
       <c r="C823">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="824">
@@ -12716,7 +12716,7 @@
         </is>
       </c>
       <c r="C824">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="825">
@@ -12731,7 +12731,7 @@
         </is>
       </c>
       <c r="C825">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="826">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="C826">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="827">
@@ -12761,7 +12761,7 @@
         </is>
       </c>
       <c r="C827">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="828">
@@ -12776,7 +12776,7 @@
         </is>
       </c>
       <c r="C828">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="829">
@@ -12791,7 +12791,7 @@
         </is>
       </c>
       <c r="C829">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="830">
@@ -12806,7 +12806,7 @@
         </is>
       </c>
       <c r="C830">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="831">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="C831">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="832">
@@ -13031,7 +13031,7 @@
         </is>
       </c>
       <c r="C845">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="846">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="C846">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="847">
@@ -13061,7 +13061,7 @@
         </is>
       </c>
       <c r="C847">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="848">
@@ -13076,7 +13076,7 @@
         </is>
       </c>
       <c r="C848">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="849">
@@ -13091,7 +13091,7 @@
         </is>
       </c>
       <c r="C849">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="850">
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="C850">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="851">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="C851">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="852">
@@ -13136,7 +13136,7 @@
         </is>
       </c>
       <c r="C852">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="853">
@@ -13151,7 +13151,7 @@
         </is>
       </c>
       <c r="C853">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="854">
@@ -13166,7 +13166,7 @@
         </is>
       </c>
       <c r="C854">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="855">
@@ -13181,7 +13181,7 @@
         </is>
       </c>
       <c r="C855">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="856">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="C856">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="857">
@@ -13211,7 +13211,7 @@
         </is>
       </c>
       <c r="C857">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="858">
@@ -13226,7 +13226,7 @@
         </is>
       </c>
       <c r="C858">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="859">
@@ -13241,7 +13241,7 @@
         </is>
       </c>
       <c r="C859">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="860">
@@ -13256,7 +13256,7 @@
         </is>
       </c>
       <c r="C860">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="861">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="C861">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="862">
@@ -13286,7 +13286,7 @@
         </is>
       </c>
       <c r="C862">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="863">
@@ -13301,7 +13301,7 @@
         </is>
       </c>
       <c r="C863">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="864">
@@ -13316,7 +13316,7 @@
         </is>
       </c>
       <c r="C864">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="865">
@@ -13331,7 +13331,7 @@
         </is>
       </c>
       <c r="C865">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="866">
@@ -13886,7 +13886,7 @@
         </is>
       </c>
       <c r="C902">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="903">
@@ -13901,7 +13901,7 @@
         </is>
       </c>
       <c r="C903">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="904">
@@ -13916,7 +13916,7 @@
         </is>
       </c>
       <c r="C904">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="905">
@@ -13931,7 +13931,7 @@
         </is>
       </c>
       <c r="C905">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="906">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="C906">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="907">
@@ -13961,7 +13961,7 @@
         </is>
       </c>
       <c r="C907">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="908">
@@ -13976,7 +13976,7 @@
         </is>
       </c>
       <c r="C908">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="909">
@@ -13991,7 +13991,7 @@
         </is>
       </c>
       <c r="C909">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="910">
@@ -14006,7 +14006,7 @@
         </is>
       </c>
       <c r="C910">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="911">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="C911">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="912">
@@ -14036,7 +14036,7 @@
         </is>
       </c>
       <c r="C912">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="913">
@@ -14051,7 +14051,7 @@
         </is>
       </c>
       <c r="C913">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="914">
@@ -15341,7 +15341,7 @@
         </is>
       </c>
       <c r="C999">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1000">
@@ -15356,7 +15356,7 @@
         </is>
       </c>
       <c r="C1000">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1001">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="C1001">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1002">
@@ -15386,7 +15386,7 @@
         </is>
       </c>
       <c r="C1002">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1003">
@@ -15401,7 +15401,7 @@
         </is>
       </c>
       <c r="C1003">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1004">
@@ -15416,7 +15416,7 @@
         </is>
       </c>
       <c r="C1004">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1005">
@@ -15431,7 +15431,7 @@
         </is>
       </c>
       <c r="C1005">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1006">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="C1006">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1007">
@@ -15461,7 +15461,7 @@
         </is>
       </c>
       <c r="C1007">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1008">
@@ -15476,7 +15476,7 @@
         </is>
       </c>
       <c r="C1008">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1009">
@@ -15491,7 +15491,7 @@
         </is>
       </c>
       <c r="C1009">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1010">
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="C1010">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1011">
@@ -16136,7 +16136,7 @@
         </is>
       </c>
       <c r="C1052">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1053">
@@ -16151,7 +16151,7 @@
         </is>
       </c>
       <c r="C1053">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1054">
@@ -16166,7 +16166,7 @@
         </is>
       </c>
       <c r="C1054">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1055">
@@ -16181,7 +16181,7 @@
         </is>
       </c>
       <c r="C1055">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1056">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="C1056">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1057">
@@ -16211,7 +16211,7 @@
         </is>
       </c>
       <c r="C1057">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1058">
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="C1058">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1059">
@@ -16241,7 +16241,7 @@
         </is>
       </c>
       <c r="C1059">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1060">
@@ -16256,7 +16256,7 @@
         </is>
       </c>
       <c r="C1060">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1061">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="C1061">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1062">
@@ -16286,7 +16286,7 @@
         </is>
       </c>
       <c r="C1062">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1063">
@@ -16301,7 +16301,7 @@
         </is>
       </c>
       <c r="C1063">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1064">
@@ -17336,7 +17336,7 @@
         </is>
       </c>
       <c r="C1132">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1133">
@@ -17351,7 +17351,7 @@
         </is>
       </c>
       <c r="C1133">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1134">
@@ -17366,7 +17366,7 @@
         </is>
       </c>
       <c r="C1134">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1135">
@@ -17381,7 +17381,7 @@
         </is>
       </c>
       <c r="C1135">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1136">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="C1136">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1137">
@@ -17411,7 +17411,7 @@
         </is>
       </c>
       <c r="C1137">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1138">
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="C1138">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1139">
@@ -17441,7 +17441,7 @@
         </is>
       </c>
       <c r="C1139">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1140">
@@ -17456,7 +17456,7 @@
         </is>
       </c>
       <c r="C1140">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1141">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="C1141">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1142">
@@ -17486,7 +17486,7 @@
         </is>
       </c>
       <c r="C1142">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1143">
@@ -17501,7 +17501,7 @@
         </is>
       </c>
       <c r="C1143">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1144">
@@ -17516,7 +17516,7 @@
         </is>
       </c>
       <c r="C1144">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1145">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="C1161">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1162">
@@ -17786,7 +17786,7 @@
         </is>
       </c>
       <c r="C1162">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1163">
@@ -17801,7 +17801,7 @@
         </is>
       </c>
       <c r="C1163">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1164">
@@ -17816,7 +17816,7 @@
         </is>
       </c>
       <c r="C1164">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1165">
@@ -17831,7 +17831,7 @@
         </is>
       </c>
       <c r="C1165">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1166">
@@ -18191,7 +18191,7 @@
         </is>
       </c>
       <c r="C1189">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1190">
@@ -18206,7 +18206,7 @@
         </is>
       </c>
       <c r="C1190">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1191">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="C1191">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1192">
@@ -18236,7 +18236,7 @@
         </is>
       </c>
       <c r="C1192">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1193">
@@ -18251,7 +18251,7 @@
         </is>
       </c>
       <c r="C1193">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1194">
@@ -18266,7 +18266,7 @@
         </is>
       </c>
       <c r="C1194">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1195">
@@ -18281,7 +18281,7 @@
         </is>
       </c>
       <c r="C1195">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1196">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="C1196">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1197">
@@ -18311,7 +18311,7 @@
         </is>
       </c>
       <c r="C1197">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1198">
@@ -18326,7 +18326,7 @@
         </is>
       </c>
       <c r="C1198">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1199">
@@ -18341,7 +18341,7 @@
         </is>
       </c>
       <c r="C1199">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1200">
@@ -18356,7 +18356,7 @@
         </is>
       </c>
       <c r="C1200">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1201">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="C1201">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1202">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="C1236">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1237">
@@ -18911,7 +18911,7 @@
         </is>
       </c>
       <c r="C1237">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1238">
@@ -18926,7 +18926,7 @@
         </is>
       </c>
       <c r="C1238">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1239">
@@ -18941,7 +18941,7 @@
         </is>
       </c>
       <c r="C1239">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1240">
@@ -18956,7 +18956,7 @@
         </is>
       </c>
       <c r="C1240">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1241">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="C1241">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1242">
@@ -18986,7 +18986,7 @@
         </is>
       </c>
       <c r="C1242">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1243">
@@ -19001,7 +19001,7 @@
         </is>
       </c>
       <c r="C1243">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1244">
@@ -19016,7 +19016,7 @@
         </is>
       </c>
       <c r="C1244">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1245">
@@ -19031,7 +19031,7 @@
         </is>
       </c>
       <c r="C1245">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1246">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="C1246">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1247">
@@ -19061,7 +19061,7 @@
         </is>
       </c>
       <c r="C1247">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1248">
@@ -19841,7 +19841,7 @@
         </is>
       </c>
       <c r="C1299">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1300">
@@ -19856,7 +19856,7 @@
         </is>
       </c>
       <c r="C1300">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1301">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="C1301">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1302">
@@ -19886,7 +19886,7 @@
         </is>
       </c>
       <c r="C1302">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1303">
@@ -19901,7 +19901,7 @@
         </is>
       </c>
       <c r="C1303">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1304">
@@ -19916,7 +19916,7 @@
         </is>
       </c>
       <c r="C1304">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1305">
@@ -19931,7 +19931,7 @@
         </is>
       </c>
       <c r="C1305">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1306">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="C1306">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1307">
@@ -19961,7 +19961,7 @@
         </is>
       </c>
       <c r="C1307">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1308">
@@ -19976,7 +19976,7 @@
         </is>
       </c>
       <c r="C1308">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1309">
@@ -19991,7 +19991,7 @@
         </is>
       </c>
       <c r="C1309">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1310">
@@ -20006,7 +20006,7 @@
         </is>
       </c>
       <c r="C1310">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1311">
@@ -22691,7 +22691,7 @@
         </is>
       </c>
       <c r="C1489">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1490">
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="C1490">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1491">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="C1491">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1492">
@@ -22736,7 +22736,7 @@
         </is>
       </c>
       <c r="C1492">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1493">
@@ -22751,7 +22751,7 @@
         </is>
       </c>
       <c r="C1493">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1494">
@@ -22766,7 +22766,7 @@
         </is>
       </c>
       <c r="C1494">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1495">
@@ -22781,7 +22781,7 @@
         </is>
       </c>
       <c r="C1495">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1496">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="C1496">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1497">
@@ -22811,7 +22811,7 @@
         </is>
       </c>
       <c r="C1497">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1498">
@@ -22826,7 +22826,7 @@
         </is>
       </c>
       <c r="C1498">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1499">
@@ -22841,7 +22841,7 @@
         </is>
       </c>
       <c r="C1499">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1500">
@@ -22856,7 +22856,7 @@
         </is>
       </c>
       <c r="C1500">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1501">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="C1501">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1502">
@@ -23576,7 +23576,7 @@
         </is>
       </c>
       <c r="C1548">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1549">
@@ -23591,7 +23591,7 @@
         </is>
       </c>
       <c r="C1549">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1550">
@@ -23606,7 +23606,7 @@
         </is>
       </c>
       <c r="C1550">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1551">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="C1551">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1552">
@@ -23636,7 +23636,7 @@
         </is>
       </c>
       <c r="C1552">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1553">
@@ -23651,7 +23651,7 @@
         </is>
       </c>
       <c r="C1553">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1554">
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="C1554">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1555">
@@ -23681,7 +23681,7 @@
         </is>
       </c>
       <c r="C1555">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1556">
@@ -25511,7 +25511,7 @@
         </is>
       </c>
       <c r="C1677">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1678">
@@ -25526,7 +25526,7 @@
         </is>
       </c>
       <c r="C1678">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1679">
@@ -25541,7 +25541,7 @@
         </is>
       </c>
       <c r="C1679">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1680">
@@ -25556,7 +25556,7 @@
         </is>
       </c>
       <c r="C1680">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1681">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="C1681">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1682">
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="C1682">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1683">
@@ -25601,7 +25601,7 @@
         </is>
       </c>
       <c r="C1683">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1684">
@@ -25616,7 +25616,7 @@
         </is>
       </c>
       <c r="C1684">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1685">
@@ -25631,7 +25631,7 @@
         </is>
       </c>
       <c r="C1685">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1686">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="C1686">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1687">
@@ -25661,7 +25661,7 @@
         </is>
       </c>
       <c r="C1687">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1688">
@@ -25676,7 +25676,7 @@
         </is>
       </c>
       <c r="C1688">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1689">
@@ -25691,7 +25691,7 @@
         </is>
       </c>
       <c r="C1689">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1690">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="C1690">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1691">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="C1691">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1692">
@@ -25736,7 +25736,7 @@
         </is>
       </c>
       <c r="C1692">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1693">
@@ -25751,7 +25751,7 @@
         </is>
       </c>
       <c r="C1693">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1694">
@@ -25766,7 +25766,7 @@
         </is>
       </c>
       <c r="C1694">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1695">
@@ -25781,7 +25781,7 @@
         </is>
       </c>
       <c r="C1695">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1696">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="C1696">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1697">
@@ -25811,7 +25811,7 @@
         </is>
       </c>
       <c r="C1697">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1698">
@@ -26336,7 +26336,7 @@
         </is>
       </c>
       <c r="C1732">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1733">
@@ -26351,7 +26351,7 @@
         </is>
       </c>
       <c r="C1733">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1734">
@@ -26366,7 +26366,7 @@
         </is>
       </c>
       <c r="C1734">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1735">
@@ -26381,7 +26381,7 @@
         </is>
       </c>
       <c r="C1735">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1736">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="C1736">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1737">
@@ -26411,7 +26411,7 @@
         </is>
       </c>
       <c r="C1737">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1738">
@@ -26426,7 +26426,7 @@
         </is>
       </c>
       <c r="C1738">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1739">
@@ -26441,7 +26441,7 @@
         </is>
       </c>
       <c r="C1739">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1740">
@@ -26456,7 +26456,7 @@
         </is>
       </c>
       <c r="C1740">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1741">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="C1741">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1742">
@@ -26486,7 +26486,7 @@
         </is>
       </c>
       <c r="C1742">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1743">
@@ -26501,7 +26501,7 @@
         </is>
       </c>
       <c r="C1743">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1744">
@@ -26516,7 +26516,7 @@
         </is>
       </c>
       <c r="C1744">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1745">
@@ -26591,7 +26591,7 @@
         </is>
       </c>
       <c r="C1749">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1750">
@@ -26606,7 +26606,7 @@
         </is>
       </c>
       <c r="C1750">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1751">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="C1751">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1752">
@@ -26636,7 +26636,7 @@
         </is>
       </c>
       <c r="C1752">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1753">
@@ -26651,7 +26651,7 @@
         </is>
       </c>
       <c r="C1753">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1754">
@@ -26666,7 +26666,7 @@
         </is>
       </c>
       <c r="C1754">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1755">
@@ -26681,7 +26681,7 @@
         </is>
       </c>
       <c r="C1755">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1756">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="C1756">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1757">
@@ -26711,7 +26711,7 @@
         </is>
       </c>
       <c r="C1757">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1758">
@@ -26726,7 +26726,7 @@
         </is>
       </c>
       <c r="C1758">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1759">
@@ -26741,7 +26741,7 @@
         </is>
       </c>
       <c r="C1759">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1760">
@@ -26756,7 +26756,7 @@
         </is>
       </c>
       <c r="C1760">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1761">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="C1761">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1762">
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="C1762">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1763">
@@ -26801,7 +26801,7 @@
         </is>
       </c>
       <c r="C1763">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1764">
@@ -26816,7 +26816,7 @@
         </is>
       </c>
       <c r="C1764">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1765">
@@ -26831,7 +26831,7 @@
         </is>
       </c>
       <c r="C1765">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1766">
@@ -27191,7 +27191,7 @@
         </is>
       </c>
       <c r="C1789">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1790">
@@ -27206,7 +27206,7 @@
         </is>
       </c>
       <c r="C1790">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1791">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="C1791">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1792">
@@ -27236,7 +27236,7 @@
         </is>
       </c>
       <c r="C1792">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1793">
@@ -27251,7 +27251,7 @@
         </is>
       </c>
       <c r="C1793">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1794">
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="C1794">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1795">
@@ -27281,7 +27281,7 @@
         </is>
       </c>
       <c r="C1795">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1796">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="C1796">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1797">
@@ -27311,7 +27311,7 @@
         </is>
       </c>
       <c r="C1797">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1798">
@@ -27326,7 +27326,7 @@
         </is>
       </c>
       <c r="C1798">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1799">
@@ -27341,7 +27341,7 @@
         </is>
       </c>
       <c r="C1799">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1800">
@@ -27356,7 +27356,7 @@
         </is>
       </c>
       <c r="C1800">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1801">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="C1801">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1802">
@@ -28781,7 +28781,7 @@
         </is>
       </c>
       <c r="C1895">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1896">
@@ -28796,7 +28796,7 @@
         </is>
       </c>
       <c r="C1896">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1897">
@@ -28811,7 +28811,7 @@
         </is>
       </c>
       <c r="C1897">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1898">
@@ -28826,7 +28826,7 @@
         </is>
       </c>
       <c r="C1898">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1899">
@@ -29816,7 +29816,7 @@
         </is>
       </c>
       <c r="C1964">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1965">
@@ -29831,7 +29831,7 @@
         </is>
       </c>
       <c r="C1965">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1966">
@@ -29846,7 +29846,7 @@
         </is>
       </c>
       <c r="C1966">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1967">
@@ -29861,7 +29861,7 @@
         </is>
       </c>
       <c r="C1967">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1968">
@@ -29876,7 +29876,7 @@
         </is>
       </c>
       <c r="C1968">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1969">
@@ -29891,7 +29891,7 @@
         </is>
       </c>
       <c r="C1969">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1970">
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="C1970">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1971">
@@ -29921,7 +29921,7 @@
         </is>
       </c>
       <c r="C1971">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1972">
@@ -29936,7 +29936,7 @@
         </is>
       </c>
       <c r="C1972">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1973">
@@ -29951,7 +29951,7 @@
         </is>
       </c>
       <c r="C1973">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1974">
@@ -29966,7 +29966,7 @@
         </is>
       </c>
       <c r="C1974">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1975">
@@ -29981,7 +29981,7 @@
         </is>
       </c>
       <c r="C1975">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1976">
@@ -29996,7 +29996,7 @@
         </is>
       </c>
       <c r="C1976">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1977">
@@ -30326,7 +30326,7 @@
         </is>
       </c>
       <c r="C1998">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1999">
@@ -30341,7 +30341,7 @@
         </is>
       </c>
       <c r="C1999">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2000">
@@ -30356,7 +30356,7 @@
         </is>
       </c>
       <c r="C2000">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2001">
@@ -30371,7 +30371,7 @@
         </is>
       </c>
       <c r="C2001">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2002">
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="C2002">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2003">
@@ -30401,7 +30401,7 @@
         </is>
       </c>
       <c r="C2003">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2004">
@@ -30416,7 +30416,7 @@
         </is>
       </c>
       <c r="C2004">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2005">
@@ -30431,7 +30431,7 @@
         </is>
       </c>
       <c r="C2005">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2006">
@@ -31031,7 +31031,7 @@
         </is>
       </c>
       <c r="C2045">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2046">
@@ -31046,7 +31046,7 @@
         </is>
       </c>
       <c r="C2046">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2047">
@@ -31061,7 +31061,7 @@
         </is>
       </c>
       <c r="C2047">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2048">
@@ -31076,7 +31076,7 @@
         </is>
       </c>
       <c r="C2048">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2049">
@@ -31496,7 +31496,7 @@
         </is>
       </c>
       <c r="C2076">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2077">
@@ -31511,7 +31511,7 @@
         </is>
       </c>
       <c r="C2077">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2078">
@@ -31526,7 +31526,7 @@
         </is>
       </c>
       <c r="C2078">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2079">
@@ -31541,7 +31541,7 @@
         </is>
       </c>
       <c r="C2079">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2080">
@@ -31556,7 +31556,7 @@
         </is>
       </c>
       <c r="C2080">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2081">
@@ -31571,7 +31571,7 @@
         </is>
       </c>
       <c r="C2081">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2082">
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="C2082">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2083">
@@ -31601,7 +31601,7 @@
         </is>
       </c>
       <c r="C2083">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2084">
@@ -31616,7 +31616,7 @@
         </is>
       </c>
       <c r="C2084">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2085">
@@ -31631,7 +31631,7 @@
         </is>
       </c>
       <c r="C2085">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2086">
@@ -31646,7 +31646,7 @@
         </is>
       </c>
       <c r="C2086">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2087">
@@ -31661,7 +31661,7 @@
         </is>
       </c>
       <c r="C2087">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2088">
@@ -31676,7 +31676,7 @@
         </is>
       </c>
       <c r="C2088">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2089">
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="C2114">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2115">
@@ -32081,7 +32081,7 @@
         </is>
       </c>
       <c r="C2115">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2116">
@@ -32096,7 +32096,7 @@
         </is>
       </c>
       <c r="C2116">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2117">
@@ -32111,7 +32111,7 @@
         </is>
       </c>
       <c r="C2117">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2118">
@@ -32126,7 +32126,7 @@
         </is>
       </c>
       <c r="C2118">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2119">
@@ -32141,7 +32141,7 @@
         </is>
       </c>
       <c r="C2119">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2120">
@@ -32156,7 +32156,7 @@
         </is>
       </c>
       <c r="C2120">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2121">
@@ -32171,7 +32171,7 @@
         </is>
       </c>
       <c r="C2121">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2122">
@@ -32186,7 +32186,7 @@
         </is>
       </c>
       <c r="C2122">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2123">
@@ -32201,7 +32201,7 @@
         </is>
       </c>
       <c r="C2123">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2124">
@@ -32216,7 +32216,7 @@
         </is>
       </c>
       <c r="C2124">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2125">
@@ -32231,7 +32231,7 @@
         </is>
       </c>
       <c r="C2125">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2126">
@@ -32246,7 +32246,7 @@
         </is>
       </c>
       <c r="C2126">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2127">
@@ -32696,7 +32696,7 @@
         </is>
       </c>
       <c r="C2156">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2157">
@@ -32711,7 +32711,7 @@
         </is>
       </c>
       <c r="C2157">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2158">
@@ -32726,7 +32726,7 @@
         </is>
       </c>
       <c r="C2158">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2159">
@@ -32741,7 +32741,7 @@
         </is>
       </c>
       <c r="C2159">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2160">
@@ -32756,7 +32756,7 @@
         </is>
       </c>
       <c r="C2160">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2161">
@@ -32771,7 +32771,7 @@
         </is>
       </c>
       <c r="C2161">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2162">
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="C2162">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2163">
@@ -32801,7 +32801,7 @@
         </is>
       </c>
       <c r="C2163">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2164">
@@ -32816,7 +32816,7 @@
         </is>
       </c>
       <c r="C2164">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2165">
@@ -32831,7 +32831,7 @@
         </is>
       </c>
       <c r="C2165">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2166">
@@ -32846,7 +32846,7 @@
         </is>
       </c>
       <c r="C2166">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2167">
@@ -32861,7 +32861,7 @@
         </is>
       </c>
       <c r="C2167">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2168">
@@ -32876,7 +32876,7 @@
         </is>
       </c>
       <c r="C2168">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2169">
@@ -36191,7 +36191,7 @@
         </is>
       </c>
       <c r="C2389">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2390">
@@ -36206,7 +36206,7 @@
         </is>
       </c>
       <c r="C2390">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2391">
@@ -36221,7 +36221,7 @@
         </is>
       </c>
       <c r="C2391">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2392">
@@ -36236,7 +36236,7 @@
         </is>
       </c>
       <c r="C2392">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2393">
@@ -36251,7 +36251,7 @@
         </is>
       </c>
       <c r="C2393">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2394">
@@ -36266,7 +36266,7 @@
         </is>
       </c>
       <c r="C2394">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2395">
@@ -36281,7 +36281,7 @@
         </is>
       </c>
       <c r="C2395">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2396">
@@ -36296,7 +36296,7 @@
         </is>
       </c>
       <c r="C2396">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2397">
@@ -36311,7 +36311,7 @@
         </is>
       </c>
       <c r="C2397">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2398">
@@ -36326,7 +36326,7 @@
         </is>
       </c>
       <c r="C2398">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2399">
@@ -36341,7 +36341,7 @@
         </is>
       </c>
       <c r="C2399">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2400">
@@ -36356,7 +36356,7 @@
         </is>
       </c>
       <c r="C2400">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2401">
@@ -36371,7 +36371,7 @@
         </is>
       </c>
       <c r="C2401">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2402">
@@ -36761,7 +36761,7 @@
         </is>
       </c>
       <c r="C2427">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2428">
@@ -36776,7 +36776,7 @@
         </is>
       </c>
       <c r="C2428">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2429">
@@ -37196,7 +37196,7 @@
         </is>
       </c>
       <c r="C2456">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2457">
@@ -37211,7 +37211,7 @@
         </is>
       </c>
       <c r="C2457">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2458">
@@ -37226,7 +37226,7 @@
         </is>
       </c>
       <c r="C2458">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2459">
@@ -37241,7 +37241,7 @@
         </is>
       </c>
       <c r="C2459">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2460">
@@ -37256,7 +37256,7 @@
         </is>
       </c>
       <c r="C2460">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2461">
@@ -37271,7 +37271,7 @@
         </is>
       </c>
       <c r="C2461">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2462">
@@ -37286,7 +37286,7 @@
         </is>
       </c>
       <c r="C2462">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2463">
@@ -37301,7 +37301,7 @@
         </is>
       </c>
       <c r="C2463">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2464">
@@ -37316,7 +37316,7 @@
         </is>
       </c>
       <c r="C2464">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2465">
@@ -37331,7 +37331,7 @@
         </is>
       </c>
       <c r="C2465">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2466">
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="C2466">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2467">
@@ -37361,7 +37361,7 @@
         </is>
       </c>
       <c r="C2467">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2468">
@@ -37376,7 +37376,7 @@
         </is>
       </c>
       <c r="C2468">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2469">
@@ -38441,7 +38441,7 @@
         </is>
       </c>
       <c r="C2539">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2540">
@@ -38456,7 +38456,7 @@
         </is>
       </c>
       <c r="C2540">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2541">
@@ -38471,7 +38471,7 @@
         </is>
       </c>
       <c r="C2541">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2542">
@@ -38486,7 +38486,7 @@
         </is>
       </c>
       <c r="C2542">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2543">
@@ -38501,7 +38501,7 @@
         </is>
       </c>
       <c r="C2543">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2544">
@@ -38516,7 +38516,7 @@
         </is>
       </c>
       <c r="C2544">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2545">
@@ -38531,7 +38531,7 @@
         </is>
       </c>
       <c r="C2545">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2546">
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="C2546">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2547">
@@ -38561,7 +38561,7 @@
         </is>
       </c>
       <c r="C2547">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2548">
@@ -38576,7 +38576,7 @@
         </is>
       </c>
       <c r="C2548">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2549">
@@ -38591,7 +38591,7 @@
         </is>
       </c>
       <c r="C2549">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2550">
@@ -38606,7 +38606,7 @@
         </is>
       </c>
       <c r="C2550">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2551">
@@ -38621,7 +38621,7 @@
         </is>
       </c>
       <c r="C2551">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2552">
@@ -41576,7 +41576,7 @@
         </is>
       </c>
       <c r="C2748">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2749">
@@ -41591,7 +41591,7 @@
         </is>
       </c>
       <c r="C2749">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2750">
@@ -41606,7 +41606,7 @@
         </is>
       </c>
       <c r="C2750">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2751">
@@ -41621,7 +41621,7 @@
         </is>
       </c>
       <c r="C2751">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2752">
@@ -41636,7 +41636,7 @@
         </is>
       </c>
       <c r="C2752">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2753">
@@ -41651,7 +41651,7 @@
         </is>
       </c>
       <c r="C2753">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2754">
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="C2754">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2755">
@@ -41681,7 +41681,7 @@
         </is>
       </c>
       <c r="C2755">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2756">
@@ -43541,7 +43541,7 @@
         </is>
       </c>
       <c r="C2879">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2880">
@@ -43556,7 +43556,7 @@
         </is>
       </c>
       <c r="C2880">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2881">
@@ -43571,7 +43571,7 @@
         </is>
       </c>
       <c r="C2881">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2882">
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="C2882">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2883">
@@ -43601,7 +43601,7 @@
         </is>
       </c>
       <c r="C2883">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2884">
@@ -43616,7 +43616,7 @@
         </is>
       </c>
       <c r="C2884">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2885">
@@ -43631,7 +43631,7 @@
         </is>
       </c>
       <c r="C2885">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2886">
@@ -43646,7 +43646,7 @@
         </is>
       </c>
       <c r="C2886">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2887">
@@ -43661,7 +43661,7 @@
         </is>
       </c>
       <c r="C2887">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2888">
@@ -43676,7 +43676,7 @@
         </is>
       </c>
       <c r="C2888">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2889">
@@ -43691,7 +43691,7 @@
         </is>
       </c>
       <c r="C2889">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2890">
@@ -43706,7 +43706,7 @@
         </is>
       </c>
       <c r="C2890">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2891">
@@ -43721,7 +43721,7 @@
         </is>
       </c>
       <c r="C2891">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2892">
@@ -43736,7 +43736,7 @@
         </is>
       </c>
       <c r="C2892">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2893">
@@ -43751,7 +43751,7 @@
         </is>
       </c>
       <c r="C2893">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2894">
@@ -43766,7 +43766,7 @@
         </is>
       </c>
       <c r="C2894">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2895">
@@ -43781,7 +43781,7 @@
         </is>
       </c>
       <c r="C2895">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2896">
@@ -43796,7 +43796,7 @@
         </is>
       </c>
       <c r="C2896">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2897">
@@ -43811,7 +43811,7 @@
         </is>
       </c>
       <c r="C2897">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2898">
@@ -44336,7 +44336,7 @@
         </is>
       </c>
       <c r="C2932">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2933">
@@ -44351,7 +44351,7 @@
         </is>
       </c>
       <c r="C2933">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2934">
@@ -44366,7 +44366,7 @@
         </is>
       </c>
       <c r="C2934">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2935">
@@ -44381,7 +44381,7 @@
         </is>
       </c>
       <c r="C2935">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2936">
@@ -44396,7 +44396,7 @@
         </is>
       </c>
       <c r="C2936">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2937">
@@ -44411,7 +44411,7 @@
         </is>
       </c>
       <c r="C2937">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2938">
@@ -44426,7 +44426,7 @@
         </is>
       </c>
       <c r="C2938">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2939">
@@ -44441,7 +44441,7 @@
         </is>
       </c>
       <c r="C2939">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2940">
@@ -44456,7 +44456,7 @@
         </is>
       </c>
       <c r="C2940">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2941">
@@ -44471,7 +44471,7 @@
         </is>
       </c>
       <c r="C2941">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2942">
@@ -44486,7 +44486,7 @@
         </is>
       </c>
       <c r="C2942">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2943">
@@ -44501,7 +44501,7 @@
         </is>
       </c>
       <c r="C2943">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2944">
@@ -44516,7 +44516,7 @@
         </is>
       </c>
       <c r="C2944">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2945">
@@ -44591,7 +44591,7 @@
         </is>
       </c>
       <c r="C2949">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2950">
@@ -44606,7 +44606,7 @@
         </is>
       </c>
       <c r="C2950">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2951">
@@ -44621,7 +44621,7 @@
         </is>
       </c>
       <c r="C2951">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2952">
@@ -44636,7 +44636,7 @@
         </is>
       </c>
       <c r="C2952">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2953">
@@ -44651,7 +44651,7 @@
         </is>
       </c>
       <c r="C2953">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2954">
@@ -44666,7 +44666,7 @@
         </is>
       </c>
       <c r="C2954">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2955">
@@ -44681,7 +44681,7 @@
         </is>
       </c>
       <c r="C2955">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2956">
@@ -44696,7 +44696,7 @@
         </is>
       </c>
       <c r="C2956">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2957">
@@ -44711,7 +44711,7 @@
         </is>
       </c>
       <c r="C2957">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2958">
@@ -44726,7 +44726,7 @@
         </is>
       </c>
       <c r="C2958">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2959">
@@ -44741,7 +44741,7 @@
         </is>
       </c>
       <c r="C2959">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2960">
@@ -44756,7 +44756,7 @@
         </is>
       </c>
       <c r="C2960">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2961">
@@ -44771,7 +44771,7 @@
         </is>
       </c>
       <c r="C2961">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2962">
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="C2962">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2963">
@@ -44801,7 +44801,7 @@
         </is>
       </c>
       <c r="C2963">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2964">
@@ -44816,7 +44816,7 @@
         </is>
       </c>
       <c r="C2964">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2965">
@@ -44831,7 +44831,7 @@
         </is>
       </c>
       <c r="C2965">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2966">
@@ -44846,7 +44846,7 @@
         </is>
       </c>
       <c r="C2966">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2967">
@@ -44861,7 +44861,7 @@
         </is>
       </c>
       <c r="C2967">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2968">
@@ -44876,7 +44876,7 @@
         </is>
       </c>
       <c r="C2968">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2969">
@@ -44891,7 +44891,7 @@
         </is>
       </c>
       <c r="C2969">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2970">
@@ -44906,7 +44906,7 @@
         </is>
       </c>
       <c r="C2970">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2971">
@@ -44921,7 +44921,7 @@
         </is>
       </c>
       <c r="C2971">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2972">
@@ -44936,7 +44936,7 @@
         </is>
       </c>
       <c r="C2972">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2973">
@@ -44951,7 +44951,7 @@
         </is>
       </c>
       <c r="C2973">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2974">
@@ -44966,7 +44966,7 @@
         </is>
       </c>
       <c r="C2974">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2975">
@@ -44981,7 +44981,7 @@
         </is>
       </c>
       <c r="C2975">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2976">
@@ -45191,7 +45191,7 @@
         </is>
       </c>
       <c r="C2989">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2990">
@@ -45206,7 +45206,7 @@
         </is>
       </c>
       <c r="C2990">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2991">
@@ -45221,7 +45221,7 @@
         </is>
       </c>
       <c r="C2991">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2992">
@@ -45236,7 +45236,7 @@
         </is>
       </c>
       <c r="C2992">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2993">
@@ -45251,7 +45251,7 @@
         </is>
       </c>
       <c r="C2993">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2994">
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="C2994">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2995">
@@ -45281,7 +45281,7 @@
         </is>
       </c>
       <c r="C2995">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2996">
@@ -45296,7 +45296,7 @@
         </is>
       </c>
       <c r="C2996">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2997">
@@ -45311,7 +45311,7 @@
         </is>
       </c>
       <c r="C2997">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2998">
@@ -45326,7 +45326,7 @@
         </is>
       </c>
       <c r="C2998">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2999">
@@ -45341,7 +45341,7 @@
         </is>
       </c>
       <c r="C2999">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3000">
@@ -45356,7 +45356,7 @@
         </is>
       </c>
       <c r="C3000">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3001">
@@ -45371,7 +45371,7 @@
         </is>
       </c>
       <c r="C3001">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3002">
@@ -47246,7 +47246,7 @@
         </is>
       </c>
       <c r="C3126">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3127">
@@ -47261,7 +47261,7 @@
         </is>
       </c>
       <c r="C3127">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3128">
@@ -47276,7 +47276,7 @@
         </is>
       </c>
       <c r="C3128">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3129">
@@ -47291,7 +47291,7 @@
         </is>
       </c>
       <c r="C3129">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3130">
@@ -47306,7 +47306,7 @@
         </is>
       </c>
       <c r="C3130">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3131">
@@ -47321,7 +47321,7 @@
         </is>
       </c>
       <c r="C3131">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3132">
@@ -47336,7 +47336,7 @@
         </is>
       </c>
       <c r="C3132">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3133">
@@ -47351,7 +47351,7 @@
         </is>
       </c>
       <c r="C3133">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3134">
@@ -47366,7 +47366,7 @@
         </is>
       </c>
       <c r="C3134">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3135">
@@ -47381,7 +47381,7 @@
         </is>
       </c>
       <c r="C3135">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3136">
@@ -47396,7 +47396,7 @@
         </is>
       </c>
       <c r="C3136">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3137">
@@ -47411,7 +47411,7 @@
         </is>
       </c>
       <c r="C3137">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3138">
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="C3138">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3139">
@@ -48011,7 +48011,7 @@
         </is>
       </c>
       <c r="C3177">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3178">
@@ -48026,7 +48026,7 @@
         </is>
       </c>
       <c r="C3178">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3179">
@@ -48041,7 +48041,7 @@
         </is>
       </c>
       <c r="C3179">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3180">
@@ -48056,7 +48056,7 @@
         </is>
       </c>
       <c r="C3180">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3181">
@@ -48071,7 +48071,7 @@
         </is>
       </c>
       <c r="C3181">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3182">
@@ -48086,7 +48086,7 @@
         </is>
       </c>
       <c r="C3182">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3183">
@@ -48101,7 +48101,7 @@
         </is>
       </c>
       <c r="C3183">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3184">
@@ -48116,7 +48116,7 @@
         </is>
       </c>
       <c r="C3184">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3185">
@@ -48131,7 +48131,7 @@
         </is>
       </c>
       <c r="C3185">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3186">
@@ -48446,7 +48446,7 @@
         </is>
       </c>
       <c r="C3206">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3207">
@@ -48461,7 +48461,7 @@
         </is>
       </c>
       <c r="C3207">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3208">
@@ -48476,7 +48476,7 @@
         </is>
       </c>
       <c r="C3208">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3209">
@@ -48491,7 +48491,7 @@
         </is>
       </c>
       <c r="C3209">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3210">
@@ -48506,7 +48506,7 @@
         </is>
       </c>
       <c r="C3210">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3211">
@@ -48521,7 +48521,7 @@
         </is>
       </c>
       <c r="C3211">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3212">
@@ -48536,7 +48536,7 @@
         </is>
       </c>
       <c r="C3212">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3213">
@@ -48551,7 +48551,7 @@
         </is>
       </c>
       <c r="C3213">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3214">
@@ -48566,7 +48566,7 @@
         </is>
       </c>
       <c r="C3214">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3215">
@@ -48581,7 +48581,7 @@
         </is>
       </c>
       <c r="C3215">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3216">
@@ -48596,7 +48596,7 @@
         </is>
       </c>
       <c r="C3216">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3217">
@@ -48611,7 +48611,7 @@
         </is>
       </c>
       <c r="C3217">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3218">
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="C3218">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3219">
@@ -48641,7 +48641,7 @@
         </is>
       </c>
       <c r="C3219">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3220">
@@ -48656,7 +48656,7 @@
         </is>
       </c>
       <c r="C3220">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3221">
@@ -48671,7 +48671,7 @@
         </is>
       </c>
       <c r="C3221">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3222">
@@ -48686,7 +48686,7 @@
         </is>
       </c>
       <c r="C3222">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3223">
@@ -48701,7 +48701,7 @@
         </is>
       </c>
       <c r="C3223">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3224">
@@ -48716,7 +48716,7 @@
         </is>
       </c>
       <c r="C3224">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3225">
@@ -48731,7 +48731,7 @@
         </is>
       </c>
       <c r="C3225">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3226">
@@ -48746,7 +48746,7 @@
         </is>
       </c>
       <c r="C3226">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3227">
@@ -48761,7 +48761,7 @@
         </is>
       </c>
       <c r="C3227">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3228">
@@ -48776,7 +48776,7 @@
         </is>
       </c>
       <c r="C3228">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3229">
@@ -48791,7 +48791,7 @@
         </is>
       </c>
       <c r="C3229">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3230">
@@ -48806,7 +48806,7 @@
         </is>
       </c>
       <c r="C3230">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3231">
@@ -48821,7 +48821,7 @@
         </is>
       </c>
       <c r="C3231">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3232">
@@ -49091,7 +49091,7 @@
         </is>
       </c>
       <c r="C3249">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3250">
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="C3250">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3251">
@@ -49121,7 +49121,7 @@
         </is>
       </c>
       <c r="C3251">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3252">
@@ -49136,7 +49136,7 @@
         </is>
       </c>
       <c r="C3252">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3253">
@@ -49151,7 +49151,7 @@
         </is>
       </c>
       <c r="C3253">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3254">
@@ -49166,7 +49166,7 @@
         </is>
       </c>
       <c r="C3254">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3255">
@@ -49181,7 +49181,7 @@
         </is>
       </c>
       <c r="C3255">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3256">
@@ -49196,7 +49196,7 @@
         </is>
       </c>
       <c r="C3256">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3257">
@@ -49211,7 +49211,7 @@
         </is>
       </c>
       <c r="C3257">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3258">
@@ -49226,7 +49226,7 @@
         </is>
       </c>
       <c r="C3258">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3259">
@@ -49241,7 +49241,7 @@
         </is>
       </c>
       <c r="C3259">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3260">
@@ -49256,7 +49256,7 @@
         </is>
       </c>
       <c r="C3260">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3261">
@@ -49271,7 +49271,7 @@
         </is>
       </c>
       <c r="C3261">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3262">
@@ -49286,7 +49286,7 @@
         </is>
       </c>
       <c r="C3262">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3263">
@@ -49301,7 +49301,7 @@
         </is>
       </c>
       <c r="C3263">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3264">
@@ -49316,7 +49316,7 @@
         </is>
       </c>
       <c r="C3264">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3265">
@@ -49331,7 +49331,7 @@
         </is>
       </c>
       <c r="C3265">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3266">
@@ -50396,7 +50396,7 @@
         </is>
       </c>
       <c r="C3336">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3337">
@@ -50411,7 +50411,7 @@
         </is>
       </c>
       <c r="C3337">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3338">
@@ -50426,7 +50426,7 @@
         </is>
       </c>
       <c r="C3338">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3339">
@@ -50441,7 +50441,7 @@
         </is>
       </c>
       <c r="C3339">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3340">
@@ -50456,7 +50456,7 @@
         </is>
       </c>
       <c r="C3340">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3341">
@@ -50471,7 +50471,7 @@
         </is>
       </c>
       <c r="C3341">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3342">
@@ -50486,7 +50486,7 @@
         </is>
       </c>
       <c r="C3342">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3343">
@@ -50501,7 +50501,7 @@
         </is>
       </c>
       <c r="C3343">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3344">
@@ -50516,7 +50516,7 @@
         </is>
       </c>
       <c r="C3344">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3345">
@@ -50531,7 +50531,7 @@
         </is>
       </c>
       <c r="C3345">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3346">
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="C3346">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3347">
@@ -50561,7 +50561,7 @@
         </is>
       </c>
       <c r="C3347">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3348">
@@ -51521,7 +51521,7 @@
         </is>
       </c>
       <c r="C3411">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3412">
@@ -51536,7 +51536,7 @@
         </is>
       </c>
       <c r="C3412">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3413">
@@ -51551,7 +51551,7 @@
         </is>
       </c>
       <c r="C3413">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3414">
@@ -51566,7 +51566,7 @@
         </is>
       </c>
       <c r="C3414">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3415">
@@ -51581,7 +51581,7 @@
         </is>
       </c>
       <c r="C3415">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3416">
@@ -51596,7 +51596,7 @@
         </is>
       </c>
       <c r="C3416">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3417">
@@ -51611,7 +51611,7 @@
         </is>
       </c>
       <c r="C3417">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3418">
@@ -51626,7 +51626,7 @@
         </is>
       </c>
       <c r="C3418">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3419">
@@ -51641,7 +51641,7 @@
         </is>
       </c>
       <c r="C3419">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3420">
@@ -51656,7 +51656,7 @@
         </is>
       </c>
       <c r="C3420">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3421">
@@ -51671,7 +51671,7 @@
         </is>
       </c>
       <c r="C3421">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3422">
@@ -51686,7 +51686,7 @@
         </is>
       </c>
       <c r="C3422">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3423">
@@ -51701,7 +51701,7 @@
         </is>
       </c>
       <c r="C3423">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3424">
@@ -51716,7 +51716,7 @@
         </is>
       </c>
       <c r="C3424">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3425">
@@ -51731,7 +51731,7 @@
         </is>
       </c>
       <c r="C3425">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3426">
@@ -52511,7 +52511,7 @@
         </is>
       </c>
       <c r="C3477">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3478">
@@ -52526,7 +52526,7 @@
         </is>
       </c>
       <c r="C3478">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3479">
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="C3602">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3603">
@@ -54401,7 +54401,7 @@
         </is>
       </c>
       <c r="C3603">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3604">
@@ -54416,7 +54416,7 @@
         </is>
       </c>
       <c r="C3604">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3605">
@@ -54431,7 +54431,7 @@
         </is>
       </c>
       <c r="C3605">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3606">
@@ -54446,7 +54446,7 @@
         </is>
       </c>
       <c r="C3606">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3607">
@@ -54461,7 +54461,7 @@
         </is>
       </c>
       <c r="C3607">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3608">
@@ -54476,7 +54476,7 @@
         </is>
       </c>
       <c r="C3608">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3609">
@@ -54491,7 +54491,7 @@
         </is>
       </c>
       <c r="C3609">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3610">
@@ -54506,7 +54506,7 @@
         </is>
       </c>
       <c r="C3610">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3611">
@@ -54521,7 +54521,7 @@
         </is>
       </c>
       <c r="C3611">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3612">
@@ -54536,7 +54536,7 @@
         </is>
       </c>
       <c r="C3612">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3613">
@@ -54551,7 +54551,7 @@
         </is>
       </c>
       <c r="C3613">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3614">
@@ -54761,7 +54761,7 @@
         </is>
       </c>
       <c r="C3627">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3628">
@@ -54776,7 +54776,7 @@
         </is>
       </c>
       <c r="C3628">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3629">
@@ -55196,7 +55196,7 @@
         </is>
       </c>
       <c r="C3656">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3657">
@@ -55211,7 +55211,7 @@
         </is>
       </c>
       <c r="C3657">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3658">
@@ -55226,7 +55226,7 @@
         </is>
       </c>
       <c r="C3658">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3659">
@@ -55241,7 +55241,7 @@
         </is>
       </c>
       <c r="C3659">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3660">
@@ -55256,7 +55256,7 @@
         </is>
       </c>
       <c r="C3660">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3661">
@@ -55271,7 +55271,7 @@
         </is>
       </c>
       <c r="C3661">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3662">
@@ -55286,7 +55286,7 @@
         </is>
       </c>
       <c r="C3662">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3663">
@@ -55301,7 +55301,7 @@
         </is>
       </c>
       <c r="C3663">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3664">
@@ -55316,7 +55316,7 @@
         </is>
       </c>
       <c r="C3664">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3665">
@@ -55331,7 +55331,7 @@
         </is>
       </c>
       <c r="C3665">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3666">
@@ -55346,7 +55346,7 @@
         </is>
       </c>
       <c r="C3666">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3667">
@@ -55361,7 +55361,7 @@
         </is>
       </c>
       <c r="C3667">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3668">
@@ -55376,7 +55376,7 @@
         </is>
       </c>
       <c r="C3668">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3669">
@@ -56021,7 +56021,7 @@
         </is>
       </c>
       <c r="C3711">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3712">
@@ -56036,7 +56036,7 @@
         </is>
       </c>
       <c r="C3712">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3713">
@@ -56051,7 +56051,7 @@
         </is>
       </c>
       <c r="C3713">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3714">
@@ -56066,7 +56066,7 @@
         </is>
       </c>
       <c r="C3714">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3715">
@@ -56081,7 +56081,7 @@
         </is>
       </c>
       <c r="C3715">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3716">
@@ -56096,7 +56096,7 @@
         </is>
       </c>
       <c r="C3716">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3717">
@@ -56111,7 +56111,7 @@
         </is>
       </c>
       <c r="C3717">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3718">
@@ -56126,7 +56126,7 @@
         </is>
       </c>
       <c r="C3718">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3719">
@@ -56141,7 +56141,7 @@
         </is>
       </c>
       <c r="C3719">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3720">
@@ -56156,7 +56156,7 @@
         </is>
       </c>
       <c r="C3720">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3721">
@@ -56171,7 +56171,7 @@
         </is>
       </c>
       <c r="C3721">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3722">
@@ -56186,7 +56186,7 @@
         </is>
       </c>
       <c r="C3722">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3723">
@@ -56201,7 +56201,7 @@
         </is>
       </c>
       <c r="C3723">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3724">
@@ -56216,7 +56216,7 @@
         </is>
       </c>
       <c r="C3724">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3725">
@@ -56231,7 +56231,7 @@
         </is>
       </c>
       <c r="C3725">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3726">
@@ -56441,7 +56441,7 @@
         </is>
       </c>
       <c r="C3739">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3740">
@@ -56456,7 +56456,7 @@
         </is>
       </c>
       <c r="C3740">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3741">
@@ -56471,7 +56471,7 @@
         </is>
       </c>
       <c r="C3741">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3742">
@@ -56486,7 +56486,7 @@
         </is>
       </c>
       <c r="C3742">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3743">
@@ -56501,7 +56501,7 @@
         </is>
       </c>
       <c r="C3743">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3744">
@@ -56516,7 +56516,7 @@
         </is>
       </c>
       <c r="C3744">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3745">
@@ -56531,7 +56531,7 @@
         </is>
       </c>
       <c r="C3745">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3746">
@@ -56546,7 +56546,7 @@
         </is>
       </c>
       <c r="C3746">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3747">
@@ -56561,7 +56561,7 @@
         </is>
       </c>
       <c r="C3747">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3748">
@@ -56576,7 +56576,7 @@
         </is>
       </c>
       <c r="C3748">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3749">
@@ -56591,7 +56591,7 @@
         </is>
       </c>
       <c r="C3749">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3750">
@@ -56606,7 +56606,7 @@
         </is>
       </c>
       <c r="C3750">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3751">
@@ -56621,7 +56621,7 @@
         </is>
       </c>
       <c r="C3751">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3752">
@@ -56816,7 +56816,7 @@
         </is>
       </c>
       <c r="C3764">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3765">
@@ -56831,7 +56831,7 @@
         </is>
       </c>
       <c r="C3765">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3766">
@@ -56846,7 +56846,7 @@
         </is>
       </c>
       <c r="C3766">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3767">
@@ -56861,7 +56861,7 @@
         </is>
       </c>
       <c r="C3767">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3768">
@@ -56876,7 +56876,7 @@
         </is>
       </c>
       <c r="C3768">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3769">
@@ -56891,7 +56891,7 @@
         </is>
       </c>
       <c r="C3769">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3770">
@@ -56906,7 +56906,7 @@
         </is>
       </c>
       <c r="C3770">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3771">
@@ -56921,7 +56921,7 @@
         </is>
       </c>
       <c r="C3771">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3772">
@@ -56936,7 +56936,7 @@
         </is>
       </c>
       <c r="C3772">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3773">
@@ -56951,7 +56951,7 @@
         </is>
       </c>
       <c r="C3773">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3774">
@@ -56966,7 +56966,7 @@
         </is>
       </c>
       <c r="C3774">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3775">
@@ -56981,7 +56981,7 @@
         </is>
       </c>
       <c r="C3775">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3776">
@@ -56996,7 +56996,7 @@
         </is>
       </c>
       <c r="C3776">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3777">
@@ -58346,7 +58346,7 @@
         </is>
       </c>
       <c r="C3866">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3867">
@@ -58361,7 +58361,7 @@
         </is>
       </c>
       <c r="C3867">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3868">
@@ -58376,7 +58376,7 @@
         </is>
       </c>
       <c r="C3868">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3869">
@@ -58391,7 +58391,7 @@
         </is>
       </c>
       <c r="C3869">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3870">
@@ -58406,7 +58406,7 @@
         </is>
       </c>
       <c r="C3870">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3871">
@@ -58421,7 +58421,7 @@
         </is>
       </c>
       <c r="C3871">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3872">
@@ -58436,7 +58436,7 @@
         </is>
       </c>
       <c r="C3872">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3873">
@@ -58451,7 +58451,7 @@
         </is>
       </c>
       <c r="C3873">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3874">
@@ -58466,7 +58466,7 @@
         </is>
       </c>
       <c r="C3874">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3875">
@@ -58481,7 +58481,7 @@
         </is>
       </c>
       <c r="C3875">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3876">
@@ -58496,7 +58496,7 @@
         </is>
       </c>
       <c r="C3876">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3877">
@@ -58511,7 +58511,7 @@
         </is>
       </c>
       <c r="C3877">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3878">
@@ -58526,7 +58526,7 @@
         </is>
       </c>
       <c r="C3878">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3879">
@@ -58541,7 +58541,7 @@
         </is>
       </c>
       <c r="C3879">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3880">
@@ -58556,7 +58556,7 @@
         </is>
       </c>
       <c r="C3880">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3881">
@@ -58571,7 +58571,7 @@
         </is>
       </c>
       <c r="C3881">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3882">
@@ -58586,7 +58586,7 @@
         </is>
       </c>
       <c r="C3882">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3883">
@@ -58601,7 +58601,7 @@
         </is>
       </c>
       <c r="C3883">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3884">
@@ -58616,7 +58616,7 @@
         </is>
       </c>
       <c r="C3884">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3885">
@@ -58631,7 +58631,7 @@
         </is>
       </c>
       <c r="C3885">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3886">
@@ -58646,7 +58646,7 @@
         </is>
       </c>
       <c r="C3886">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3887">
@@ -58661,7 +58661,7 @@
         </is>
       </c>
       <c r="C3887">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3888">
@@ -58676,7 +58676,7 @@
         </is>
       </c>
       <c r="C3888">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3889">
@@ -58691,7 +58691,7 @@
         </is>
       </c>
       <c r="C3889">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3890">
@@ -58706,7 +58706,7 @@
         </is>
       </c>
       <c r="C3890">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3891">
@@ -58721,7 +58721,7 @@
         </is>
       </c>
       <c r="C3891">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3892">
@@ -58736,7 +58736,7 @@
         </is>
       </c>
       <c r="C3892">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3893">
@@ -58751,7 +58751,7 @@
         </is>
       </c>
       <c r="C3893">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3894">
@@ -58766,7 +58766,7 @@
         </is>
       </c>
       <c r="C3894">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3895">
@@ -58781,7 +58781,7 @@
         </is>
       </c>
       <c r="C3895">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3896">
@@ -58796,7 +58796,7 @@
         </is>
       </c>
       <c r="C3896">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3897">
@@ -58811,7 +58811,7 @@
         </is>
       </c>
       <c r="C3897">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3898">
@@ -58826,7 +58826,7 @@
         </is>
       </c>
       <c r="C3898">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3899">
@@ -58841,7 +58841,7 @@
         </is>
       </c>
       <c r="C3899">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3900">
@@ -58856,7 +58856,7 @@
         </is>
       </c>
       <c r="C3900">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3901">
@@ -58871,7 +58871,7 @@
         </is>
       </c>
       <c r="C3901">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3902">
@@ -58886,7 +58886,7 @@
         </is>
       </c>
       <c r="C3902">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3903">
@@ -58901,7 +58901,7 @@
         </is>
       </c>
       <c r="C3903">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3904">
@@ -58916,7 +58916,7 @@
         </is>
       </c>
       <c r="C3904">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3905">
@@ -58931,7 +58931,7 @@
         </is>
       </c>
       <c r="C3905">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3906">
@@ -58946,7 +58946,7 @@
         </is>
       </c>
       <c r="C3906">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3907">
@@ -58961,7 +58961,7 @@
         </is>
       </c>
       <c r="C3907">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3908">
@@ -58976,7 +58976,7 @@
         </is>
       </c>
       <c r="C3908">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3909">
@@ -58991,7 +58991,7 @@
         </is>
       </c>
       <c r="C3909">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3910">
@@ -59006,7 +59006,7 @@
         </is>
       </c>
       <c r="C3910">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3911">
@@ -59021,7 +59021,7 @@
         </is>
       </c>
       <c r="C3911">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3912">
@@ -59036,7 +59036,7 @@
         </is>
       </c>
       <c r="C3912">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3913">
@@ -59051,7 +59051,7 @@
         </is>
       </c>
       <c r="C3913">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3914">
@@ -59291,7 +59291,7 @@
         </is>
       </c>
       <c r="C3929">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3930">
@@ -59306,7 +59306,7 @@
         </is>
       </c>
       <c r="C3930">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3931">
@@ -59321,7 +59321,7 @@
         </is>
       </c>
       <c r="C3931">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3932">
@@ -59336,7 +59336,7 @@
         </is>
       </c>
       <c r="C3932">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3933">
@@ -59351,7 +59351,7 @@
         </is>
       </c>
       <c r="C3933">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3934">
@@ -59366,7 +59366,7 @@
         </is>
       </c>
       <c r="C3934">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3935">
@@ -59381,7 +59381,7 @@
         </is>
       </c>
       <c r="C3935">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3936">
@@ -59576,7 +59576,7 @@
         </is>
       </c>
       <c r="C3948">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3949">
@@ -59591,7 +59591,7 @@
         </is>
       </c>
       <c r="C3949">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3950">
@@ -59606,7 +59606,7 @@
         </is>
       </c>
       <c r="C3950">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3951">
@@ -59621,7 +59621,7 @@
         </is>
       </c>
       <c r="C3951">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3952">
@@ -59636,7 +59636,7 @@
         </is>
       </c>
       <c r="C3952">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3953">
@@ -59651,7 +59651,7 @@
         </is>
       </c>
       <c r="C3953">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3954">
@@ -59666,7 +59666,7 @@
         </is>
       </c>
       <c r="C3954">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3955">
@@ -59681,7 +59681,7 @@
         </is>
       </c>
       <c r="C3955">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3956">
@@ -59696,7 +59696,7 @@
         </is>
       </c>
       <c r="C3956">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3957">
@@ -59711,7 +59711,7 @@
         </is>
       </c>
       <c r="C3957">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3958">
@@ -59726,7 +59726,7 @@
         </is>
       </c>
       <c r="C3958">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3959">
@@ -59741,7 +59741,7 @@
         </is>
       </c>
       <c r="C3959">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3960">
@@ -59756,7 +59756,7 @@
         </is>
       </c>
       <c r="C3960">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3961">
@@ -59771,7 +59771,7 @@
         </is>
       </c>
       <c r="C3961">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3962">
@@ -59786,7 +59786,7 @@
         </is>
       </c>
       <c r="C3962">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3963">
@@ -59801,7 +59801,7 @@
         </is>
       </c>
       <c r="C3963">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3964">
@@ -59816,7 +59816,7 @@
         </is>
       </c>
       <c r="C3964">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3965">
@@ -59831,7 +59831,7 @@
         </is>
       </c>
       <c r="C3965">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3966">
@@ -59846,7 +59846,7 @@
         </is>
       </c>
       <c r="C3966">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3967">
@@ -59861,7 +59861,7 @@
         </is>
       </c>
       <c r="C3967">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3968">
@@ -59876,7 +59876,7 @@
         </is>
       </c>
       <c r="C3968">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3969">
@@ -60086,7 +60086,7 @@
         </is>
       </c>
       <c r="C3982">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3983">
@@ -60101,7 +60101,7 @@
         </is>
       </c>
       <c r="C3983">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3984">
@@ -60116,7 +60116,7 @@
         </is>
       </c>
       <c r="C3984">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3985">
@@ -60131,7 +60131,7 @@
         </is>
       </c>
       <c r="C3985">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3986">
@@ -60146,7 +60146,7 @@
         </is>
       </c>
       <c r="C3986">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3987">
@@ -60161,7 +60161,7 @@
         </is>
       </c>
       <c r="C3987">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3988">
@@ -60176,7 +60176,7 @@
         </is>
       </c>
       <c r="C3988">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3989">
@@ -60191,7 +60191,7 @@
         </is>
       </c>
       <c r="C3989">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3990">
@@ -60206,7 +60206,7 @@
         </is>
       </c>
       <c r="C3990">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3991">
@@ -60221,7 +60221,7 @@
         </is>
       </c>
       <c r="C3991">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3992">
@@ -60236,7 +60236,7 @@
         </is>
       </c>
       <c r="C3992">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3993">
@@ -60251,7 +60251,7 @@
         </is>
       </c>
       <c r="C3993">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3994">
@@ -60266,7 +60266,7 @@
         </is>
       </c>
       <c r="C3994">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3995">
@@ -60341,7 +60341,7 @@
         </is>
       </c>
       <c r="C3999">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4000">
@@ -60356,7 +60356,7 @@
         </is>
       </c>
       <c r="C4000">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4001">
@@ -60371,7 +60371,7 @@
         </is>
       </c>
       <c r="C4001">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4002">
@@ -60386,7 +60386,7 @@
         </is>
       </c>
       <c r="C4002">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4003">
@@ -60401,7 +60401,7 @@
         </is>
       </c>
       <c r="C4003">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4004">
@@ -60416,7 +60416,7 @@
         </is>
       </c>
       <c r="C4004">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4005">
@@ -60431,7 +60431,7 @@
         </is>
       </c>
       <c r="C4005">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4006">
@@ -60446,7 +60446,7 @@
         </is>
       </c>
       <c r="C4006">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4007">
@@ -60461,7 +60461,7 @@
         </is>
       </c>
       <c r="C4007">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4008">
@@ -60476,7 +60476,7 @@
         </is>
       </c>
       <c r="C4008">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4009">
@@ -60491,7 +60491,7 @@
         </is>
       </c>
       <c r="C4009">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4010">
@@ -60506,7 +60506,7 @@
         </is>
       </c>
       <c r="C4010">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4011">
@@ -60521,7 +60521,7 @@
         </is>
       </c>
       <c r="C4011">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4012">
@@ -60536,7 +60536,7 @@
         </is>
       </c>
       <c r="C4012">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4013">
@@ -60551,7 +60551,7 @@
         </is>
       </c>
       <c r="C4013">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4014">
@@ -60566,7 +60566,7 @@
         </is>
       </c>
       <c r="C4014">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4015">
@@ -60581,7 +60581,7 @@
         </is>
       </c>
       <c r="C4015">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4016">
@@ -60746,7 +60746,7 @@
         </is>
       </c>
       <c r="C4026">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4027">
@@ -60761,7 +60761,7 @@
         </is>
       </c>
       <c r="C4027">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4028">
@@ -60776,7 +60776,7 @@
         </is>
       </c>
       <c r="C4028">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4029">
@@ -60791,7 +60791,7 @@
         </is>
       </c>
       <c r="C4029">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4030">
@@ -60806,7 +60806,7 @@
         </is>
       </c>
       <c r="C4030">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4031">
@@ -60821,7 +60821,7 @@
         </is>
       </c>
       <c r="C4031">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4032">
@@ -60836,7 +60836,7 @@
         </is>
       </c>
       <c r="C4032">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4033">
@@ -60851,7 +60851,7 @@
         </is>
       </c>
       <c r="C4033">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4034">
@@ -60866,7 +60866,7 @@
         </is>
       </c>
       <c r="C4034">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4035">
@@ -60881,7 +60881,7 @@
         </is>
       </c>
       <c r="C4035">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4036">
@@ -60896,7 +60896,7 @@
         </is>
       </c>
       <c r="C4036">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4037">
@@ -60911,7 +60911,7 @@
         </is>
       </c>
       <c r="C4037">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4038">
@@ -60926,7 +60926,7 @@
         </is>
       </c>
       <c r="C4038">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4039">
@@ -61316,7 +61316,7 @@
         </is>
       </c>
       <c r="C4064">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4065">
@@ -61331,7 +61331,7 @@
         </is>
       </c>
       <c r="C4065">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4066">
@@ -61346,7 +61346,7 @@
         </is>
       </c>
       <c r="C4066">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4067">
@@ -61361,7 +61361,7 @@
         </is>
       </c>
       <c r="C4067">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4068">
@@ -61376,7 +61376,7 @@
         </is>
       </c>
       <c r="C4068">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4069">
@@ -61391,7 +61391,7 @@
         </is>
       </c>
       <c r="C4069">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4070">
@@ -61406,7 +61406,7 @@
         </is>
       </c>
       <c r="C4070">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4071">
@@ -61421,7 +61421,7 @@
         </is>
       </c>
       <c r="C4071">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4072">
@@ -61436,7 +61436,7 @@
         </is>
       </c>
       <c r="C4072">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4073">
@@ -61451,7 +61451,7 @@
         </is>
       </c>
       <c r="C4073">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4074">
@@ -61466,7 +61466,7 @@
         </is>
       </c>
       <c r="C4074">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4075">
@@ -61481,7 +61481,7 @@
         </is>
       </c>
       <c r="C4075">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4076">
@@ -61496,7 +61496,7 @@
         </is>
       </c>
       <c r="C4076">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4077">
@@ -61541,7 +61541,7 @@
         </is>
       </c>
       <c r="C4079">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4080">
@@ -61556,7 +61556,7 @@
         </is>
       </c>
       <c r="C4080">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4081">
@@ -61571,7 +61571,7 @@
         </is>
       </c>
       <c r="C4081">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4082">
@@ -61586,7 +61586,7 @@
         </is>
       </c>
       <c r="C4082">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4083">
@@ -61601,7 +61601,7 @@
         </is>
       </c>
       <c r="C4083">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4084">
@@ -61616,7 +61616,7 @@
         </is>
       </c>
       <c r="C4084">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4085">
@@ -61631,7 +61631,7 @@
         </is>
       </c>
       <c r="C4085">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4086">
@@ -62996,7 +62996,7 @@
         </is>
       </c>
       <c r="C4176">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4177">
@@ -63011,7 +63011,7 @@
         </is>
       </c>
       <c r="C4177">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4178">
@@ -63026,7 +63026,7 @@
         </is>
       </c>
       <c r="C4178">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4179">
@@ -63041,7 +63041,7 @@
         </is>
       </c>
       <c r="C4179">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4180">
@@ -63056,7 +63056,7 @@
         </is>
       </c>
       <c r="C4180">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4181">
@@ -63071,7 +63071,7 @@
         </is>
       </c>
       <c r="C4181">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4182">
@@ -63086,7 +63086,7 @@
         </is>
       </c>
       <c r="C4182">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4183">
@@ -63101,7 +63101,7 @@
         </is>
       </c>
       <c r="C4183">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4184">
@@ -63116,7 +63116,7 @@
         </is>
       </c>
       <c r="C4184">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4185">
@@ -63131,7 +63131,7 @@
         </is>
       </c>
       <c r="C4185">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4186">
@@ -63146,7 +63146,7 @@
         </is>
       </c>
       <c r="C4186">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4187">
@@ -63161,7 +63161,7 @@
         </is>
       </c>
       <c r="C4187">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4188">
@@ -63176,7 +63176,7 @@
         </is>
       </c>
       <c r="C4188">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4189">
@@ -64391,7 +64391,7 @@
         </is>
       </c>
       <c r="C4269">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4270">
@@ -64406,7 +64406,7 @@
         </is>
       </c>
       <c r="C4270">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4271">
@@ -64421,7 +64421,7 @@
         </is>
       </c>
       <c r="C4271">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4272">
@@ -64436,7 +64436,7 @@
         </is>
       </c>
       <c r="C4272">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4273">
@@ -64451,7 +64451,7 @@
         </is>
       </c>
       <c r="C4273">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4274">
@@ -64466,7 +64466,7 @@
         </is>
       </c>
       <c r="C4274">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4275">
@@ -64481,7 +64481,7 @@
         </is>
       </c>
       <c r="C4275">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4276">
@@ -64496,7 +64496,7 @@
         </is>
       </c>
       <c r="C4276">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4277">
@@ -64511,7 +64511,7 @@
         </is>
       </c>
       <c r="C4277">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4278">
@@ -64526,7 +64526,7 @@
         </is>
       </c>
       <c r="C4278">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4279">
@@ -64541,7 +64541,7 @@
         </is>
       </c>
       <c r="C4279">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4280">
@@ -64556,7 +64556,7 @@
         </is>
       </c>
       <c r="C4280">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4281">
@@ -64571,7 +64571,7 @@
         </is>
       </c>
       <c r="C4281">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4282">
@@ -64586,7 +64586,7 @@
         </is>
       </c>
       <c r="C4282">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4283">
@@ -64601,7 +64601,7 @@
         </is>
       </c>
       <c r="C4283">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4284">
@@ -64616,7 +64616,7 @@
         </is>
       </c>
       <c r="C4284">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4285">
@@ -64631,7 +64631,7 @@
         </is>
       </c>
       <c r="C4285">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4286">
@@ -64646,7 +64646,7 @@
         </is>
       </c>
       <c r="C4286">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4287">
@@ -64661,7 +64661,7 @@
         </is>
       </c>
       <c r="C4287">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4288">
@@ -64676,7 +64676,7 @@
         </is>
       </c>
       <c r="C4288">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4289">
@@ -64691,7 +64691,7 @@
         </is>
       </c>
       <c r="C4289">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4290">
@@ -64706,7 +64706,7 @@
         </is>
       </c>
       <c r="C4290">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4291">
@@ -64721,7 +64721,7 @@
         </is>
       </c>
       <c r="C4291">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4292">
@@ -64736,7 +64736,7 @@
         </is>
       </c>
       <c r="C4292">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4293">
@@ -64751,7 +64751,7 @@
         </is>
       </c>
       <c r="C4293">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4294">
@@ -64766,7 +64766,7 @@
         </is>
       </c>
       <c r="C4294">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4295">
@@ -65096,7 +65096,7 @@
         </is>
       </c>
       <c r="C4316">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4317">
@@ -65111,7 +65111,7 @@
         </is>
       </c>
       <c r="C4317">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4318">
@@ -65126,7 +65126,7 @@
         </is>
       </c>
       <c r="C4318">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4319">
@@ -65141,7 +65141,7 @@
         </is>
       </c>
       <c r="C4319">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4320">
@@ -65156,7 +65156,7 @@
         </is>
       </c>
       <c r="C4320">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4321">
@@ -65171,7 +65171,7 @@
         </is>
       </c>
       <c r="C4321">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4322">
@@ -65186,7 +65186,7 @@
         </is>
       </c>
       <c r="C4322">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4323">
@@ -65201,7 +65201,7 @@
         </is>
       </c>
       <c r="C4323">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4324">
@@ -65216,7 +65216,7 @@
         </is>
       </c>
       <c r="C4324">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4325">
@@ -65231,7 +65231,7 @@
         </is>
       </c>
       <c r="C4325">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4326">
@@ -65441,7 +65441,7 @@
         </is>
       </c>
       <c r="C4339">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4340">
@@ -65456,7 +65456,7 @@
         </is>
       </c>
       <c r="C4340">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4341">
@@ -65471,7 +65471,7 @@
         </is>
       </c>
       <c r="C4341">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4342">
@@ -65486,7 +65486,7 @@
         </is>
       </c>
       <c r="C4342">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4343">
@@ -65501,7 +65501,7 @@
         </is>
       </c>
       <c r="C4343">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4344">
@@ -65516,7 +65516,7 @@
         </is>
       </c>
       <c r="C4344">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4345">
@@ -65531,7 +65531,7 @@
         </is>
       </c>
       <c r="C4345">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4346">
@@ -65546,7 +65546,7 @@
         </is>
       </c>
       <c r="C4346">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4347">
@@ -65561,7 +65561,7 @@
         </is>
       </c>
       <c r="C4347">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4348">
@@ -65576,7 +65576,7 @@
         </is>
       </c>
       <c r="C4348">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4349">
@@ -65591,7 +65591,7 @@
         </is>
       </c>
       <c r="C4349">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4350">
@@ -65606,7 +65606,7 @@
         </is>
       </c>
       <c r="C4350">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4351">
@@ -65621,7 +65621,7 @@
         </is>
       </c>
       <c r="C4351">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4352">
@@ -66041,7 +66041,7 @@
         </is>
       </c>
       <c r="C4379">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4380">
@@ -66056,7 +66056,7 @@
         </is>
       </c>
       <c r="C4380">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4381">
@@ -66071,7 +66071,7 @@
         </is>
       </c>
       <c r="C4381">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4382">
@@ -66086,7 +66086,7 @@
         </is>
       </c>
       <c r="C4382">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4383">
@@ -66101,7 +66101,7 @@
         </is>
       </c>
       <c r="C4383">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4384">
@@ -66116,7 +66116,7 @@
         </is>
       </c>
       <c r="C4384">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4385">
@@ -66131,7 +66131,7 @@
         </is>
       </c>
       <c r="C4385">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4386">
@@ -67691,7 +67691,7 @@
         </is>
       </c>
       <c r="C4489">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4490">
@@ -67706,7 +67706,7 @@
         </is>
       </c>
       <c r="C4490">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4491">
@@ -67721,7 +67721,7 @@
         </is>
       </c>
       <c r="C4491">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4492">
@@ -67736,7 +67736,7 @@
         </is>
       </c>
       <c r="C4492">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4493">
@@ -67751,7 +67751,7 @@
         </is>
       </c>
       <c r="C4493">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4494">
@@ -67766,7 +67766,7 @@
         </is>
       </c>
       <c r="C4494">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4495">
@@ -67781,7 +67781,7 @@
         </is>
       </c>
       <c r="C4495">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4496">
@@ -67796,7 +67796,7 @@
         </is>
       </c>
       <c r="C4496">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4497">
@@ -67811,7 +67811,7 @@
         </is>
       </c>
       <c r="C4497">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4498">
@@ -67826,7 +67826,7 @@
         </is>
       </c>
       <c r="C4498">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4499">
@@ -67841,7 +67841,7 @@
         </is>
       </c>
       <c r="C4499">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4500">
@@ -67856,7 +67856,7 @@
         </is>
       </c>
       <c r="C4500">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4501">
@@ -67871,7 +67871,7 @@
         </is>
       </c>
       <c r="C4501">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
